--- a/data/pca/factorExposure/factorExposure_2009-03-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01730809153511481</v>
+        <v>-0.01667898964656771</v>
       </c>
       <c r="C2">
-        <v>-0.002192605961242574</v>
+        <v>0.001576842019916557</v>
       </c>
       <c r="D2">
-        <v>0.007066938867335934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008447328543951756</v>
+      </c>
+      <c r="E2">
+        <v>0.01864394191724972</v>
+      </c>
+      <c r="F2">
+        <v>-0.006955253573753186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08325468693418901</v>
+        <v>-0.0864187737714156</v>
       </c>
       <c r="C4">
-        <v>-0.02014121077114119</v>
+        <v>0.01600222268524461</v>
       </c>
       <c r="D4">
-        <v>0.08506117094621049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08849631121939661</v>
+      </c>
+      <c r="E4">
+        <v>-0.05017477722634129</v>
+      </c>
+      <c r="F4">
+        <v>0.01512009738134618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001193968274422603</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0001618297593373118</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.001206847121484346</v>
+      </c>
+      <c r="E5">
+        <v>-0.001698362652957284</v>
+      </c>
+      <c r="F5">
+        <v>-0.003100855814614095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.164258343733983</v>
+        <v>-0.1689429266889958</v>
       </c>
       <c r="C6">
-        <v>-0.0398921218184299</v>
+        <v>0.03710380374204057</v>
       </c>
       <c r="D6">
-        <v>-0.0173225083059563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.008707743632056938</v>
+      </c>
+      <c r="E6">
+        <v>-0.0611184470320011</v>
+      </c>
+      <c r="F6">
+        <v>0.004309530686656312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05448429363270168</v>
+        <v>-0.05903020580318363</v>
       </c>
       <c r="C7">
-        <v>-0.001651164666046004</v>
+        <v>-0.001152345685225409</v>
       </c>
       <c r="D7">
-        <v>0.05040232057988769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05472462747372935</v>
+      </c>
+      <c r="E7">
+        <v>-0.0295077222895852</v>
+      </c>
+      <c r="F7">
+        <v>0.05684162000271785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05850628540910802</v>
+        <v>-0.05484379051303035</v>
       </c>
       <c r="C8">
-        <v>0.009021379726402422</v>
+        <v>-0.01072363784892791</v>
       </c>
       <c r="D8">
-        <v>0.03576274505627339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03786704506031762</v>
+      </c>
+      <c r="E8">
+        <v>0.02254488263663368</v>
+      </c>
+      <c r="F8">
+        <v>-0.02175491557373264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06359596194453891</v>
+        <v>-0.06722112462376635</v>
       </c>
       <c r="C9">
-        <v>-0.01538899977862215</v>
+        <v>0.01135491676621838</v>
       </c>
       <c r="D9">
-        <v>0.08868858487455712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.09162372015147914</v>
+      </c>
+      <c r="E9">
+        <v>-0.06649575273259808</v>
+      </c>
+      <c r="F9">
+        <v>0.02194471571961938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09773647545333812</v>
+        <v>-0.09364934806058293</v>
       </c>
       <c r="C10">
-        <v>-0.02550808038930394</v>
+        <v>0.02633551490271472</v>
       </c>
       <c r="D10">
-        <v>-0.162029416009991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1527295200372759</v>
+      </c>
+      <c r="E10">
+        <v>0.08999897176272255</v>
+      </c>
+      <c r="F10">
+        <v>-0.008620605769641616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08504878019986092</v>
+        <v>-0.08285039710983967</v>
       </c>
       <c r="C11">
-        <v>-0.01755623032130741</v>
+        <v>0.01249686856625426</v>
       </c>
       <c r="D11">
-        <v>0.1380014520195441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1372348315954176</v>
+      </c>
+      <c r="E11">
+        <v>-0.03532339650973732</v>
+      </c>
+      <c r="F11">
+        <v>-0.006930450299303242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08927147247466971</v>
+        <v>-0.08504526403876206</v>
       </c>
       <c r="C12">
-        <v>-0.01523221227831372</v>
+        <v>0.00960234994101738</v>
       </c>
       <c r="D12">
-        <v>0.1475304947313179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1512827847367634</v>
+      </c>
+      <c r="E12">
+        <v>-0.03357262282328593</v>
+      </c>
+      <c r="F12">
+        <v>0.006019246104379453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04242888967711943</v>
+        <v>-0.04264901870279118</v>
       </c>
       <c r="C13">
-        <v>-0.007800628348788957</v>
+        <v>0.003833067356160895</v>
       </c>
       <c r="D13">
-        <v>0.05459707599259169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06082128246398712</v>
+      </c>
+      <c r="E13">
+        <v>-0.003749910179217108</v>
+      </c>
+      <c r="F13">
+        <v>0.01605905231535411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02023914464475007</v>
+        <v>-0.0226462173685355</v>
       </c>
       <c r="C14">
-        <v>-0.01524747105436078</v>
+        <v>0.01409264824757195</v>
       </c>
       <c r="D14">
-        <v>0.04108338643326662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04278034153616243</v>
+      </c>
+      <c r="E14">
+        <v>-0.02841323051316444</v>
+      </c>
+      <c r="F14">
+        <v>0.001297953561514523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03110950429534149</v>
+        <v>-0.0330780552202901</v>
       </c>
       <c r="C15">
-        <v>-0.008103413450258693</v>
+        <v>0.006485431843582197</v>
       </c>
       <c r="D15">
-        <v>0.05374892830750543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05368822926574601</v>
+      </c>
+      <c r="E15">
+        <v>-0.02473802413413943</v>
+      </c>
+      <c r="F15">
+        <v>0.01481270843415801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06517026512390736</v>
+        <v>-0.0651370764945288</v>
       </c>
       <c r="C16">
-        <v>-0.005838327311596111</v>
+        <v>0.0009821473206015341</v>
       </c>
       <c r="D16">
-        <v>0.1420089170221832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1442440085886393</v>
+      </c>
+      <c r="E16">
+        <v>-0.04438605000453475</v>
+      </c>
+      <c r="F16">
+        <v>-0.01231527823952843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002930642770567397</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001216772341285134</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002944377492934686</v>
+      </c>
+      <c r="E17">
+        <v>-0.0004658798399821691</v>
+      </c>
+      <c r="F17">
+        <v>-0.007618971544883547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03277387083122008</v>
+        <v>-0.04786196796373173</v>
       </c>
       <c r="C18">
-        <v>-0.0004265198274064765</v>
+        <v>0.0008143741210915749</v>
       </c>
       <c r="D18">
-        <v>0.03400502529162527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02876838196327667</v>
+      </c>
+      <c r="E18">
+        <v>0.01921165641045587</v>
+      </c>
+      <c r="F18">
+        <v>0.000577814165043231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06125768171492915</v>
+        <v>-0.06100607022923104</v>
       </c>
       <c r="C20">
-        <v>-0.005325745686404458</v>
+        <v>0.002468623940334716</v>
       </c>
       <c r="D20">
-        <v>0.09617070739830058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0956913283884048</v>
+      </c>
+      <c r="E20">
+        <v>-0.06145252035819708</v>
+      </c>
+      <c r="F20">
+        <v>-0.007027800310253957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04196789163155108</v>
+        <v>-0.04380239195872717</v>
       </c>
       <c r="C21">
-        <v>-0.01108580604077203</v>
+        <v>0.008440920046563011</v>
       </c>
       <c r="D21">
-        <v>0.0480800369585459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.04878286940059183</v>
+      </c>
+      <c r="E21">
+        <v>0.01868227559769144</v>
+      </c>
+      <c r="F21">
+        <v>0.006308142860183507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04612163722221387</v>
+        <v>-0.04452024132741221</v>
       </c>
       <c r="C22">
-        <v>-0.005375941189577399</v>
+        <v>0.002858513644236758</v>
       </c>
       <c r="D22">
-        <v>0.01169481848528401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01669692930584296</v>
+      </c>
+      <c r="E22">
+        <v>0.0397927025361195</v>
+      </c>
+      <c r="F22">
+        <v>-0.1279199686040579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04613066317757997</v>
+        <v>-0.04452794910895441</v>
       </c>
       <c r="C23">
-        <v>-0.005378553002598478</v>
+        <v>0.002860876246687928</v>
       </c>
       <c r="D23">
-        <v>0.01168741807315764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01669093623115553</v>
+      </c>
+      <c r="E23">
+        <v>0.03981479561500688</v>
+      </c>
+      <c r="F23">
+        <v>-0.1279606055131261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07250418835653245</v>
+        <v>-0.07149001197003726</v>
       </c>
       <c r="C24">
-        <v>-0.006618414803093481</v>
+        <v>0.002136610126860984</v>
       </c>
       <c r="D24">
-        <v>0.1362862279626144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1353698937523364</v>
+      </c>
+      <c r="E24">
+        <v>-0.03882888334182121</v>
+      </c>
+      <c r="F24">
+        <v>0.004606625300784889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07887457887402764</v>
+        <v>-0.07677757886517918</v>
       </c>
       <c r="C25">
-        <v>-0.009685986512738167</v>
+        <v>0.005246269126396809</v>
       </c>
       <c r="D25">
-        <v>0.1277659255791777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1264564595358231</v>
+      </c>
+      <c r="E25">
+        <v>-0.0234410882025002</v>
+      </c>
+      <c r="F25">
+        <v>0.02045016563312217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05768735511719958</v>
+        <v>-0.0615840024628011</v>
       </c>
       <c r="C26">
-        <v>-0.01921838248122578</v>
+        <v>0.01637749722844606</v>
       </c>
       <c r="D26">
-        <v>0.0664398821550807</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0671252528679214</v>
+      </c>
+      <c r="E26">
+        <v>-0.002959200097099063</v>
+      </c>
+      <c r="F26">
+        <v>-0.008335953769729258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1578515353466273</v>
+        <v>-0.1618357148937634</v>
       </c>
       <c r="C28">
-        <v>-0.0317402426418015</v>
+        <v>0.03406136476664717</v>
       </c>
       <c r="D28">
-        <v>-0.2454077020018904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2428848786186758</v>
+      </c>
+      <c r="E28">
+        <v>0.02453193359417312</v>
+      </c>
+      <c r="F28">
+        <v>0.04461850528202437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02563422375808371</v>
+        <v>-0.0275419367042224</v>
       </c>
       <c r="C29">
-        <v>-0.01001611090520534</v>
+        <v>0.009402946743940524</v>
       </c>
       <c r="D29">
-        <v>0.03920609651431037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0390541069993496</v>
+      </c>
+      <c r="E29">
+        <v>0.006205427250571536</v>
+      </c>
+      <c r="F29">
+        <v>-0.0213965297680884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04541891413125219</v>
+        <v>-0.04613748200722213</v>
       </c>
       <c r="C30">
-        <v>-0.004726012457267885</v>
+        <v>0.001393184970743838</v>
       </c>
       <c r="D30">
-        <v>0.07724324342421432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08171994530813984</v>
+      </c>
+      <c r="E30">
+        <v>-0.0852277404948448</v>
+      </c>
+      <c r="F30">
+        <v>0.07002387054570626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05234531654416668</v>
+        <v>-0.05230612703958212</v>
       </c>
       <c r="C31">
-        <v>-0.01994507479836793</v>
+        <v>0.01758604767555689</v>
       </c>
       <c r="D31">
-        <v>0.03177881063168784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03499650974413079</v>
+      </c>
+      <c r="E31">
+        <v>-0.009697603000686575</v>
+      </c>
+      <c r="F31">
+        <v>-0.03082579208895292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04478445578973237</v>
+        <v>-0.04951416166870239</v>
       </c>
       <c r="C32">
-        <v>-0.001593537638383995</v>
+        <v>-0.001107382362735552</v>
       </c>
       <c r="D32">
-        <v>0.04071831741298843</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04000182639378036</v>
+      </c>
+      <c r="E32">
+        <v>-0.01312992562903479</v>
+      </c>
+      <c r="F32">
+        <v>-0.02255592823633061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08248492146390515</v>
+        <v>-0.0851584632693707</v>
       </c>
       <c r="C33">
-        <v>-0.01353845272753748</v>
+        <v>0.008372383873443955</v>
       </c>
       <c r="D33">
-        <v>0.1057256571109118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1136394257785877</v>
+      </c>
+      <c r="E33">
+        <v>-0.04442989666170215</v>
+      </c>
+      <c r="F33">
+        <v>-0.009567930963874257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06023787150560164</v>
+        <v>-0.06035515888702773</v>
       </c>
       <c r="C34">
-        <v>-0.01471223333215535</v>
+        <v>0.0100413285101532</v>
       </c>
       <c r="D34">
-        <v>0.1180207817481074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1220525650419097</v>
+      </c>
+      <c r="E34">
+        <v>-0.03768293390203461</v>
+      </c>
+      <c r="F34">
+        <v>0.02647556753678789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02739942651437878</v>
+        <v>-0.02809840850042337</v>
       </c>
       <c r="C35">
-        <v>-0.005382298119290565</v>
+        <v>0.004559824554488392</v>
       </c>
       <c r="D35">
-        <v>0.01384299011492285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01546288540479825</v>
+      </c>
+      <c r="E35">
+        <v>-0.0103987884804975</v>
+      </c>
+      <c r="F35">
+        <v>-0.01821044089966378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02455080951580907</v>
+        <v>-0.0283924646689319</v>
       </c>
       <c r="C36">
-        <v>-0.009297523078377412</v>
+        <v>0.00813236208832736</v>
       </c>
       <c r="D36">
-        <v>0.04836493693474308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04988175272312376</v>
+      </c>
+      <c r="E36">
+        <v>-0.0383250478477019</v>
+      </c>
+      <c r="F36">
+        <v>-0.01375633959170052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003407821634577542</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007977139729519887</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003808734686045107</v>
+      </c>
+      <c r="E37">
+        <v>0.001713928461694666</v>
+      </c>
+      <c r="F37">
+        <v>-0.0001061433089144454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09229428952771844</v>
+        <v>-0.0858520739516587</v>
       </c>
       <c r="C39">
-        <v>-0.02015401337469984</v>
+        <v>0.01455433389523695</v>
       </c>
       <c r="D39">
-        <v>0.1663267191656697</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1613059305501297</v>
+      </c>
+      <c r="E39">
+        <v>-0.02602574287359305</v>
+      </c>
+      <c r="F39">
+        <v>-0.008469723537317748</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0442357909697247</v>
+        <v>-0.04941289818291829</v>
       </c>
       <c r="C40">
-        <v>-0.0126397242877823</v>
+        <v>0.01079263821346405</v>
       </c>
       <c r="D40">
-        <v>0.04504191198220699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04947622533953271</v>
+      </c>
+      <c r="E40">
+        <v>0.01977787472532356</v>
+      </c>
+      <c r="F40">
+        <v>0.001337155852397437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02743751032858944</v>
+        <v>-0.02927441109259145</v>
       </c>
       <c r="C41">
-        <v>-0.008814976144995055</v>
+        <v>0.008124228276364802</v>
       </c>
       <c r="D41">
-        <v>0.02052103332953565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0219659694211032</v>
+      </c>
+      <c r="E41">
+        <v>0.007626409369997821</v>
+      </c>
+      <c r="F41">
+        <v>-0.00583302383376062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04213959233180804</v>
+        <v>-0.04092806665430542</v>
       </c>
       <c r="C43">
-        <v>-0.009883625545168608</v>
+        <v>0.008751646882609578</v>
       </c>
       <c r="D43">
-        <v>0.03175611328927609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03166845904659721</v>
+      </c>
+      <c r="E43">
+        <v>0.00713110475620812</v>
+      </c>
+      <c r="F43">
+        <v>-0.0246189535615482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05614752377014944</v>
+        <v>-0.06481132413008583</v>
       </c>
       <c r="C44">
-        <v>-0.02100541729067454</v>
+        <v>0.01824716376239324</v>
       </c>
       <c r="D44">
-        <v>0.08510289972408043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08951824491388694</v>
+      </c>
+      <c r="E44">
+        <v>-0.2234176270762236</v>
+      </c>
+      <c r="F44">
+        <v>0.07947301350849718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.000237643165516346</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.24727891084154e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>3.258223103189964e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0005728838991541115</v>
+      </c>
+      <c r="F45">
+        <v>0.0002804701952839602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02457785722323414</v>
+        <v>-0.0260049587685974</v>
       </c>
       <c r="C46">
-        <v>-0.005372669343001962</v>
+        <v>0.00443026845936103</v>
       </c>
       <c r="D46">
-        <v>0.02532921272597624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02626658428142544</v>
+      </c>
+      <c r="E46">
+        <v>0.003729868657206572</v>
+      </c>
+      <c r="F46">
+        <v>-0.03155108403132845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05370374819122879</v>
+        <v>-0.05274971483002525</v>
       </c>
       <c r="C47">
-        <v>-0.007681818983005352</v>
+        <v>0.005838053446825218</v>
       </c>
       <c r="D47">
-        <v>0.02080129273518001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02263648311342017</v>
+      </c>
+      <c r="E47">
+        <v>0.0124874364231148</v>
+      </c>
+      <c r="F47">
+        <v>-0.05489827851840846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04877529895095029</v>
+        <v>-0.05229504581825591</v>
       </c>
       <c r="C48">
-        <v>-0.006616372808153612</v>
+        <v>0.004149077403273778</v>
       </c>
       <c r="D48">
-        <v>0.0660556351814402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.064057372639302</v>
+      </c>
+      <c r="E48">
+        <v>-0.004645823806685302</v>
+      </c>
+      <c r="F48">
+        <v>0.02194921017400998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1953767993002269</v>
+        <v>-0.1979857246302626</v>
       </c>
       <c r="C49">
-        <v>-0.03087406126074337</v>
+        <v>0.02641195846932971</v>
       </c>
       <c r="D49">
-        <v>-0.005771579225163284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.000456089742575306</v>
+      </c>
+      <c r="E49">
+        <v>-0.0483234241785867</v>
+      </c>
+      <c r="F49">
+        <v>0.04075336350245402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04995536071126638</v>
+        <v>-0.05232674921209045</v>
       </c>
       <c r="C50">
-        <v>-0.01523161807547003</v>
+        <v>0.01354992665543131</v>
       </c>
       <c r="D50">
-        <v>0.03037117780380589</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03258306745729771</v>
+      </c>
+      <c r="E50">
+        <v>-0.02032466154845027</v>
+      </c>
+      <c r="F50">
+        <v>-0.01799092333405608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1472747627109977</v>
+        <v>-0.1412702865875531</v>
       </c>
       <c r="C52">
-        <v>-0.02614042808674222</v>
+        <v>0.02196780580555468</v>
       </c>
       <c r="D52">
-        <v>0.04068390693717053</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04314426595593526</v>
+      </c>
+      <c r="E52">
+        <v>-0.05747932773980641</v>
+      </c>
+      <c r="F52">
+        <v>-0.019202063809547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.176697235544242</v>
+        <v>-0.1686283920431095</v>
       </c>
       <c r="C53">
-        <v>-0.03140321909250031</v>
+        <v>0.02761626336111099</v>
       </c>
       <c r="D53">
-        <v>0.01114871492312585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01438736996823015</v>
+      </c>
+      <c r="E53">
+        <v>-0.1145501431164111</v>
+      </c>
+      <c r="F53">
+        <v>-0.005424548202848252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01321233070390493</v>
+        <v>-0.01643650954073945</v>
       </c>
       <c r="C54">
-        <v>-0.01163904969119931</v>
+        <v>0.01095614368310255</v>
       </c>
       <c r="D54">
-        <v>0.03337094032507942</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03295269648735326</v>
+      </c>
+      <c r="E54">
+        <v>-0.005780445420959996</v>
+      </c>
+      <c r="F54">
+        <v>-0.01465181990548514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.120222362187895</v>
+        <v>-0.1176958969989424</v>
       </c>
       <c r="C55">
-        <v>-0.0265665432458063</v>
+        <v>0.02354306730806604</v>
       </c>
       <c r="D55">
-        <v>0.0119183767559786</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01873894849529677</v>
+      </c>
+      <c r="E55">
+        <v>-0.06765877516386926</v>
+      </c>
+      <c r="F55">
+        <v>-0.04126483621352973</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1805521894476129</v>
+        <v>-0.1745511571468049</v>
       </c>
       <c r="C56">
-        <v>-0.02898761763982457</v>
+        <v>0.0256207785670028</v>
       </c>
       <c r="D56">
-        <v>0.0004637683150222572</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002985214096239085</v>
+      </c>
+      <c r="E56">
+        <v>-0.0734184995637895</v>
+      </c>
+      <c r="F56">
+        <v>-0.03066278392757152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04527635889143988</v>
+        <v>-0.04556277489028955</v>
       </c>
       <c r="C58">
-        <v>-0.004680262999310919</v>
+        <v>0.0005142599212037517</v>
       </c>
       <c r="D58">
-        <v>0.09173842294949765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.09786152373318877</v>
+      </c>
+      <c r="E58">
+        <v>0.0161318165111783</v>
+      </c>
+      <c r="F58">
+        <v>-0.03806099624637007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1750984205699747</v>
+        <v>-0.1798337216368709</v>
       </c>
       <c r="C59">
-        <v>-0.03078519618883167</v>
+        <v>0.03264786678237771</v>
       </c>
       <c r="D59">
-        <v>-0.2063629858144526</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2051891800109495</v>
+      </c>
+      <c r="E59">
+        <v>0.0766095841099004</v>
+      </c>
+      <c r="F59">
+        <v>-0.009460901044227352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2210445453812507</v>
+        <v>-0.2165423846122794</v>
       </c>
       <c r="C60">
-        <v>-0.009805417518017383</v>
+        <v>0.004973724274832519</v>
       </c>
       <c r="D60">
-        <v>0.02072088674190201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0229219837944165</v>
+      </c>
+      <c r="E60">
+        <v>0.005034091803115241</v>
+      </c>
+      <c r="F60">
+        <v>0.004004633501772065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07099968867961315</v>
+        <v>-0.06750053978988935</v>
       </c>
       <c r="C61">
-        <v>-0.01567461735695443</v>
+        <v>0.01077795267402147</v>
       </c>
       <c r="D61">
-        <v>0.124393805519677</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1235210533464736</v>
+      </c>
+      <c r="E61">
+        <v>-0.01259805807936186</v>
+      </c>
+      <c r="F61">
+        <v>-0.01559698248863023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1698609638410113</v>
+        <v>-0.1662604343250286</v>
       </c>
       <c r="C62">
-        <v>-0.03110831797473514</v>
+        <v>0.02752410956000102</v>
       </c>
       <c r="D62">
-        <v>0.008610420219409366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.01217840958593043</v>
+      </c>
+      <c r="E62">
+        <v>-0.06823578755790105</v>
+      </c>
+      <c r="F62">
+        <v>-0.04120618587512524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04110059479236246</v>
+        <v>-0.04626444167218947</v>
       </c>
       <c r="C63">
-        <v>-0.005840490499560257</v>
+        <v>0.003540502897596577</v>
       </c>
       <c r="D63">
-        <v>0.07215152943813744</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07527951577306954</v>
+      </c>
+      <c r="E63">
+        <v>-0.01208562723540592</v>
+      </c>
+      <c r="F63">
+        <v>-0.02211806530238317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.113920762186409</v>
+        <v>-0.1113619306798198</v>
       </c>
       <c r="C64">
-        <v>-0.0209011629555708</v>
+        <v>0.01685916229841368</v>
       </c>
       <c r="D64">
-        <v>0.0545624093628117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05942695232424576</v>
+      </c>
+      <c r="E64">
+        <v>-0.03281558655080426</v>
+      </c>
+      <c r="F64">
+        <v>0.0006754036016469148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1529865367902035</v>
+        <v>-0.1576349904137768</v>
       </c>
       <c r="C65">
-        <v>-0.0455658278531719</v>
+        <v>0.04345475217998806</v>
       </c>
       <c r="D65">
-        <v>-0.04577216738779518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03670675619459359</v>
+      </c>
+      <c r="E65">
+        <v>-0.0676529597920178</v>
+      </c>
+      <c r="F65">
+        <v>-0.007515557484114147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1127209820865081</v>
+        <v>-0.1046807884713023</v>
       </c>
       <c r="C66">
-        <v>-0.01892346919055079</v>
+        <v>0.01266883834153986</v>
       </c>
       <c r="D66">
-        <v>0.1508858745365229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1493254447713261</v>
+      </c>
+      <c r="E66">
+        <v>-0.0297053707491497</v>
+      </c>
+      <c r="F66">
+        <v>-0.007800573064995706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05899854631999717</v>
+        <v>-0.05034884983478267</v>
       </c>
       <c r="C67">
-        <v>-0.006364190515280251</v>
+        <v>0.003681067805766766</v>
       </c>
       <c r="D67">
-        <v>0.06097845356881676</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05838563462430636</v>
+      </c>
+      <c r="E67">
+        <v>0.04939777613315821</v>
+      </c>
+      <c r="F67">
+        <v>-0.06969966388674811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1261375026424718</v>
+        <v>-0.1313869082502636</v>
       </c>
       <c r="C68">
-        <v>-0.03878937459556098</v>
+        <v>0.04268434213079071</v>
       </c>
       <c r="D68">
-        <v>-0.2568416888132936</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2544208539896302</v>
+      </c>
+      <c r="E68">
+        <v>0.03691698506816782</v>
+      </c>
+      <c r="F68">
+        <v>0.07781157158986288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03911284883358759</v>
+        <v>-0.03879959760475068</v>
       </c>
       <c r="C69">
-        <v>-0.003643732757005847</v>
+        <v>0.002551061222405917</v>
       </c>
       <c r="D69">
-        <v>0.009919807549335019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01153875825889835</v>
+      </c>
+      <c r="E69">
+        <v>-0.01579391342156017</v>
+      </c>
+      <c r="F69">
+        <v>-0.05198235380557844</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07124076225500443</v>
+        <v>-0.07239616255248942</v>
       </c>
       <c r="C70">
-        <v>0.0214618392789311</v>
+        <v>-0.02326707803576008</v>
       </c>
       <c r="D70">
-        <v>0.04931044761322174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.04667988085568828</v>
+      </c>
+      <c r="E70">
+        <v>0.3320220250445984</v>
+      </c>
+      <c r="F70">
+        <v>-0.1715169219706199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1471465632586239</v>
+        <v>-0.1534721231463117</v>
       </c>
       <c r="C71">
-        <v>-0.04532201296769098</v>
+        <v>0.04869356738665988</v>
       </c>
       <c r="D71">
-        <v>-0.2670757997129772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.261400822374864</v>
+      </c>
+      <c r="E71">
+        <v>0.04302997380059135</v>
+      </c>
+      <c r="F71">
+        <v>0.08642399998341817</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1401042014830181</v>
+        <v>-0.1465516466794559</v>
       </c>
       <c r="C72">
-        <v>-0.03529539181106182</v>
+        <v>0.03346774941178088</v>
       </c>
       <c r="D72">
-        <v>0.01226333534173005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0114398943730736</v>
+      </c>
+      <c r="E72">
+        <v>-0.06402009576955951</v>
+      </c>
+      <c r="F72">
+        <v>-0.03394991705716785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1930348335146532</v>
+        <v>-0.1991074803437795</v>
       </c>
       <c r="C73">
-        <v>-0.02343965520815207</v>
+        <v>0.01776738403059009</v>
       </c>
       <c r="D73">
-        <v>0.01732056399274856</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02481474297655388</v>
+      </c>
+      <c r="E73">
+        <v>-0.06668462760034685</v>
+      </c>
+      <c r="F73">
+        <v>-0.05493580429448595</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0890901837157146</v>
+        <v>-0.08883514545016004</v>
       </c>
       <c r="C74">
-        <v>-0.01775872817963301</v>
+        <v>0.01546227374647456</v>
       </c>
       <c r="D74">
-        <v>0.02067041574043776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02518053057411512</v>
+      </c>
+      <c r="E74">
+        <v>-0.07998458599146493</v>
+      </c>
+      <c r="F74">
+        <v>-0.01630684638115606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1265976066989527</v>
+        <v>-0.1195863676953526</v>
       </c>
       <c r="C75">
-        <v>-0.03578120700888165</v>
+        <v>0.03191833955936793</v>
       </c>
       <c r="D75">
-        <v>0.03201721268561938</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03541160241213543</v>
+      </c>
+      <c r="E75">
+        <v>-0.06341177972882465</v>
+      </c>
+      <c r="F75">
+        <v>-0.06066851295804342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07638564474888886</v>
+        <v>-0.09027278646753004</v>
       </c>
       <c r="C77">
-        <v>-0.01493341515790677</v>
+        <v>0.01177364386363149</v>
       </c>
       <c r="D77">
-        <v>0.1255987424906359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1225697889681586</v>
+      </c>
+      <c r="E77">
+        <v>-0.04966108513126144</v>
+      </c>
+      <c r="F77">
+        <v>0.01764109333254495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09857435697641698</v>
+        <v>-0.1008302059239117</v>
       </c>
       <c r="C78">
-        <v>-0.04481916907565833</v>
+        <v>0.04130057020384504</v>
       </c>
       <c r="D78">
-        <v>0.1526745357406992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1447393002488927</v>
+      </c>
+      <c r="E78">
+        <v>-0.05454851514330115</v>
+      </c>
+      <c r="F78">
+        <v>0.02759547380481855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1682233381618152</v>
+        <v>-0.1638549670761979</v>
       </c>
       <c r="C79">
-        <v>-0.03442300932285937</v>
+        <v>0.03024952841575173</v>
       </c>
       <c r="D79">
-        <v>0.02262376978254732</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02542170737430121</v>
+      </c>
+      <c r="E79">
+        <v>-0.03871538573459718</v>
+      </c>
+      <c r="F79">
+        <v>-0.0388835291901863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07976111092210809</v>
+        <v>-0.07649838694980871</v>
       </c>
       <c r="C80">
-        <v>-0.00511284421027832</v>
+        <v>0.002222764139323393</v>
       </c>
       <c r="D80">
-        <v>0.05419450240799086</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05377909691581952</v>
+      </c>
+      <c r="E80">
+        <v>0.01957823577598672</v>
+      </c>
+      <c r="F80">
+        <v>-0.04910510747429622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.114835300017892</v>
+        <v>-0.1090680375232045</v>
       </c>
       <c r="C81">
-        <v>-0.03716460086224579</v>
+        <v>0.03497922400427492</v>
       </c>
       <c r="D81">
-        <v>0.00507051385965012</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.009560602387260189</v>
+      </c>
+      <c r="E81">
+        <v>-0.05006532074856373</v>
+      </c>
+      <c r="F81">
+        <v>-0.06407412594712494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1606892589639733</v>
+        <v>-0.1591311370426169</v>
       </c>
       <c r="C82">
-        <v>-0.03414368250935131</v>
+        <v>0.03066219373347498</v>
       </c>
       <c r="D82">
-        <v>-0.005131489222622082</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0006017694591785837</v>
+      </c>
+      <c r="E82">
+        <v>-0.1015224638759938</v>
+      </c>
+      <c r="F82">
+        <v>-0.002012693494278862</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05597052223600955</v>
+        <v>-0.05176453299018822</v>
       </c>
       <c r="C83">
-        <v>-0.006730380095811204</v>
+        <v>0.004380591707554326</v>
       </c>
       <c r="D83">
-        <v>0.0503214952193775</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04821899761108072</v>
+      </c>
+      <c r="E83">
+        <v>0.02375073362277879</v>
+      </c>
+      <c r="F83">
+        <v>-0.0102324989267664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0533618824697623</v>
+        <v>-0.05023847147250961</v>
       </c>
       <c r="C84">
-        <v>-0.01378622479352167</v>
+        <v>0.01113492122116645</v>
       </c>
       <c r="D84">
-        <v>0.07834000009697957</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07456455592030194</v>
+      </c>
+      <c r="E84">
+        <v>-0.006774329883858549</v>
+      </c>
+      <c r="F84">
+        <v>-0.003910157534451408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1395757746571791</v>
+        <v>-0.1344045901606284</v>
       </c>
       <c r="C85">
-        <v>-0.03757873519193264</v>
+        <v>0.03417382012509851</v>
       </c>
       <c r="D85">
-        <v>0.01466948499557957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01840657278580091</v>
+      </c>
+      <c r="E85">
+        <v>-0.0825341742661414</v>
+      </c>
+      <c r="F85">
+        <v>-0.01894964609307051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08417136406055728</v>
+        <v>-0.08079362694680149</v>
       </c>
       <c r="C86">
-        <v>0.002347825951753214</v>
+        <v>-0.006661146225619345</v>
       </c>
       <c r="D86">
-        <v>0.06878118863343702</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07747983563422337</v>
+      </c>
+      <c r="E86">
+        <v>0.5534926159372175</v>
+      </c>
+      <c r="F86">
+        <v>-0.5933867922048284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08804828844857226</v>
+        <v>-0.0879999070553688</v>
       </c>
       <c r="C87">
-        <v>-0.02879158730778629</v>
+        <v>0.02412594986998817</v>
       </c>
       <c r="D87">
-        <v>0.08596179919941199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0853159216029548</v>
+      </c>
+      <c r="E87">
+        <v>-0.002886616364763209</v>
+      </c>
+      <c r="F87">
+        <v>0.1147932628656059</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.063319227826269</v>
+        <v>-0.06220520202111102</v>
       </c>
       <c r="C88">
-        <v>-0.007732002484423598</v>
+        <v>0.005073044526698029</v>
       </c>
       <c r="D88">
-        <v>0.06302608525975489</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.06380848049484955</v>
+      </c>
+      <c r="E88">
+        <v>-0.0151730302333611</v>
+      </c>
+      <c r="F88">
+        <v>-0.01391080273906679</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1325166763347991</v>
+        <v>-0.1375844072231926</v>
       </c>
       <c r="C89">
-        <v>-0.01825490788713389</v>
+        <v>0.02232799498619866</v>
       </c>
       <c r="D89">
-        <v>-0.2289993555461726</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2339146411686963</v>
+      </c>
+      <c r="E89">
+        <v>0.04479813987236538</v>
+      </c>
+      <c r="F89">
+        <v>0.08657259293461964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1589376338229567</v>
+        <v>-0.1685018329513748</v>
       </c>
       <c r="C90">
-        <v>-0.04175551634257456</v>
+        <v>0.0458248452373705</v>
       </c>
       <c r="D90">
-        <v>-0.25581782704261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2574463511638292</v>
+      </c>
+      <c r="E90">
+        <v>0.07127030652094749</v>
+      </c>
+      <c r="F90">
+        <v>0.1160385003611988</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1266395599000011</v>
+        <v>-0.1213703614509896</v>
       </c>
       <c r="C91">
-        <v>-0.02837066043268332</v>
+        <v>0.02606741248565565</v>
       </c>
       <c r="D91">
-        <v>-0.01157140785084384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.008069992643379488</v>
+      </c>
+      <c r="E91">
+        <v>-0.03837455847150762</v>
+      </c>
+      <c r="F91">
+        <v>-0.09530409896947271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1563829365007171</v>
+        <v>-0.1591654510830288</v>
       </c>
       <c r="C92">
-        <v>-0.03204463173203266</v>
+        <v>0.03588903638537278</v>
       </c>
       <c r="D92">
-        <v>-0.282606913360021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2902868352600024</v>
+      </c>
+      <c r="E92">
+        <v>0.05489523021780264</v>
+      </c>
+      <c r="F92">
+        <v>0.07515256501475702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1627755302190726</v>
+        <v>-0.1713174741183328</v>
       </c>
       <c r="C93">
-        <v>-0.03790507502381447</v>
+        <v>0.04083013907992004</v>
       </c>
       <c r="D93">
-        <v>-0.2457999334843082</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2485503923467298</v>
+      </c>
+      <c r="E93">
+        <v>0.02922315518882817</v>
+      </c>
+      <c r="F93">
+        <v>0.05667001593796885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1239875398475087</v>
+        <v>-0.1178512655167557</v>
       </c>
       <c r="C94">
-        <v>-0.03096521592214767</v>
+        <v>0.02692149381447375</v>
       </c>
       <c r="D94">
-        <v>0.04620239618690741</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04819835074395701</v>
+      </c>
+      <c r="E94">
+        <v>-0.06175919533212914</v>
+      </c>
+      <c r="F94">
+        <v>-0.06055847591504624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1260485972068601</v>
+        <v>-0.1284512654890642</v>
       </c>
       <c r="C95">
-        <v>-0.014118741422654</v>
+        <v>0.00846877713542961</v>
       </c>
       <c r="D95">
-        <v>0.1131351992957958</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1189798689349267</v>
+      </c>
+      <c r="E95">
+        <v>-0.0150900486473766</v>
+      </c>
+      <c r="F95">
+        <v>-0.03864667623067052</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1749217931966825</v>
+        <v>-0.1555311324710224</v>
       </c>
       <c r="C96">
-        <v>0.9788935710006976</v>
+        <v>-0.9812271806844014</v>
       </c>
       <c r="D96">
-        <v>-0.03183462400474047</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05279512441116407</v>
+      </c>
+      <c r="E96">
+        <v>-0.06381463694408969</v>
+      </c>
+      <c r="F96">
+        <v>-0.01021270711526525</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1918922805588834</v>
+        <v>-0.1948662191169815</v>
       </c>
       <c r="C97">
-        <v>-0.006947482196439527</v>
+        <v>0.002124349105156489</v>
       </c>
       <c r="D97">
-        <v>-0.01935128612647077</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0153711572891846</v>
+      </c>
+      <c r="E97">
+        <v>0.1337592084323591</v>
+      </c>
+      <c r="F97">
+        <v>-0.1062412263540463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.188777031285776</v>
+        <v>-0.1961341135519701</v>
       </c>
       <c r="C98">
-        <v>-0.01847151815815036</v>
+        <v>0.01320166603062851</v>
       </c>
       <c r="D98">
-        <v>-0.003808511196722931</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.001406584065805766</v>
+      </c>
+      <c r="E98">
+        <v>0.1327889916420638</v>
+      </c>
+      <c r="F98">
+        <v>0.05881111694083733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05548334090275959</v>
+        <v>-0.05556099363094658</v>
       </c>
       <c r="C99">
-        <v>0.0007185880928257563</v>
+        <v>-0.00285962785913577</v>
       </c>
       <c r="D99">
-        <v>0.05401265139221902</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.05584268472056176</v>
+      </c>
+      <c r="E99">
+        <v>-0.005942996012365131</v>
+      </c>
+      <c r="F99">
+        <v>-0.00478112770129573</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1199328844050184</v>
+        <v>-0.1118881678734813</v>
       </c>
       <c r="C100">
-        <v>0.03277319916646099</v>
+        <v>-0.04014489309650058</v>
       </c>
       <c r="D100">
-        <v>0.3093974229288567</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.2940975460691666</v>
+      </c>
+      <c r="E100">
+        <v>0.5721025996398484</v>
+      </c>
+      <c r="F100">
+        <v>0.661212430425791</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02565659800205989</v>
+        <v>-0.02761328477714414</v>
       </c>
       <c r="C101">
-        <v>-0.01003429183505163</v>
+        <v>0.009440408844675783</v>
       </c>
       <c r="D101">
-        <v>0.038662304445007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03854988675473519</v>
+      </c>
+      <c r="E101">
+        <v>0.008488852652281312</v>
+      </c>
+      <c r="F101">
+        <v>-0.02274973428694995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
